--- a/程序员客栈项目/因卓科技教育平台/开发过程中需求变更/功能点变更/6.3程序员客栈项目开发报价单（因卓科技1.0-整包）.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/开发过程中需求变更/功能点变更/6.3程序员客栈项目开发报价单（因卓科技1.0-整包）.xlsx
@@ -5,18 +5,19 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\原型设计\最终确认文档归档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\开发过程中需求变更\功能点变更\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14184" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14184" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能点" sheetId="1" r:id="rId1"/>
     <sheet name="后台管理 " sheetId="4" r:id="rId2"/>
-    <sheet name="前端接口" sheetId="3" r:id="rId3"/>
+    <sheet name="后台管理  (添加题库需求变更)" sheetId="5" r:id="rId3"/>
+    <sheet name="前端接口" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="278">
   <si>
     <t>程序员客栈——项目报价清单</t>
   </si>
@@ -1058,7 +1059,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1194,26 +1195,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1248,14 +1249,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2569,10 +2594,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="64" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -2583,7 +2608,7 @@
       <c r="F4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="67" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="27"/>
@@ -2609,9 +2634,9 @@
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="64" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -2621,7 +2646,7 @@
       <c r="F5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="27"/>
       <c r="I5" s="28">
         <v>0.25</v>
@@ -2645,10 +2670,10 @@
       <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="50" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="64" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -2657,7 +2682,7 @@
       <c r="F6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="27"/>
       <c r="I6" s="28">
         <v>0</v>
@@ -2681,17 +2706,17 @@
       <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="65"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="27"/>
       <c r="I7" s="28">
         <v>0</v>
@@ -2715,17 +2740,17 @@
       <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="27"/>
       <c r="I8" s="28">
         <v>0</v>
@@ -2749,8 +2774,8 @@
       <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="25" t="s">
         <v>40</v>
       </c>
@@ -2759,7 +2784,7 @@
       <c r="F9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="27"/>
       <c r="I9" s="28">
         <v>0.125</v>
@@ -2783,8 +2808,8 @@
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="33" t="s">
         <v>42</v>
       </c>
@@ -2793,7 +2818,7 @@
       <c r="F10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27">
         <v>0.25</v>
@@ -2817,8 +2842,8 @@
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -2853,8 +2878,8 @@
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="25" t="s">
         <v>47</v>
       </c>
@@ -2887,8 +2912,8 @@
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="70" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -2925,8 +2950,8 @@
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="20" t="s">
         <v>53</v>
       </c>
@@ -2961,9 +2986,9 @@
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -2972,10 +2997,10 @@
       <c r="E15" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="70" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="27"/>
@@ -3001,17 +3026,17 @@
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="27"/>
       <c r="I16" s="28">
         <v>0.25</v>
@@ -3035,17 +3060,17 @@
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="27"/>
       <c r="I17" s="28">
         <v>0.25</v>
@@ -3069,15 +3094,15 @@
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="27"/>
       <c r="I18" s="28">
         <v>0.25</v>
@@ -3101,9 +3126,9 @@
       <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="26" t="s">
         <v>64</v>
       </c>
@@ -3135,8 +3160,8 @@
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="70" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -3173,8 +3198,8 @@
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="20" t="s">
         <v>70</v>
       </c>
@@ -3209,8 +3234,8 @@
       <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="20" t="s">
         <v>73</v>
       </c>
@@ -3243,8 +3268,8 @@
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="20" t="s">
         <v>74</v>
       </c>
@@ -3277,8 +3302,8 @@
       <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="20" t="s">
         <v>76</v>
       </c>
@@ -3309,8 +3334,8 @@
       <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="20" t="s">
         <v>77</v>
       </c>
@@ -3343,8 +3368,8 @@
       <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="70" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -3379,8 +3404,8 @@
       <c r="P26" s="29"/>
     </row>
     <row r="27" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="20" t="s">
         <v>82</v>
       </c>
@@ -3413,8 +3438,8 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="20" t="s">
         <v>83</v>
       </c>
@@ -3447,8 +3472,8 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="20" t="s">
         <v>84</v>
       </c>
@@ -3479,8 +3504,8 @@
       <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="20" t="s">
         <v>85</v>
       </c>
@@ -3513,8 +3538,8 @@
       <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="20" t="s">
         <v>87</v>
       </c>
@@ -3547,8 +3572,8 @@
       <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="20" t="s">
         <v>89</v>
       </c>
@@ -3581,8 +3606,8 @@
       <c r="P32" s="29"/>
     </row>
     <row r="33" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="20" t="s">
         <v>91</v>
       </c>
@@ -3615,12 +3640,12 @@
       <c r="P33" s="29"/>
     </row>
     <row r="34" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="70" t="s">
         <v>94</v>
       </c>
       <c r="E34" s="20" t="s">
@@ -3629,7 +3654,7 @@
       <c r="F34" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="70" t="s">
         <v>97</v>
       </c>
       <c r="H34" s="27"/>
@@ -3655,17 +3680,17 @@
       <c r="P34" s="29"/>
     </row>
     <row r="35" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="20" t="s">
         <v>98</v>
       </c>
       <c r="F35" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="47"/>
+      <c r="G35" s="70"/>
       <c r="H35" s="27"/>
       <c r="I35" s="28">
         <v>0.25</v>
@@ -3689,8 +3714,8 @@
       <c r="P35" s="29"/>
     </row>
     <row r="36" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="63"/>
+      <c r="B36" s="70" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="20" t="s">
@@ -3725,8 +3750,8 @@
       <c r="P36" s="29"/>
     </row>
     <row r="37" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="20" t="s">
         <v>103</v>
       </c>
@@ -3759,12 +3784,12 @@
       <c r="P37" s="29"/>
     </row>
     <row r="38" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47" t="s">
+      <c r="A38" s="63"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="70" t="s">
         <v>106</v>
       </c>
       <c r="E38" s="20" t="s">
@@ -3797,10 +3822,10 @@
       <c r="P38" s="29"/>
     </row>
     <row r="39" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="20" t="s">
         <v>109</v>
       </c>
@@ -3831,9 +3856,9 @@
       <c r="P39" s="29"/>
     </row>
     <row r="40" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="20" t="s">
         <v>111</v>
       </c>
@@ -3865,9 +3890,9 @@
       <c r="P40" s="29"/>
     </row>
     <row r="41" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="20" t="s">
         <v>113</v>
       </c>
@@ -3897,9 +3922,9 @@
       <c r="P41" s="29"/>
     </row>
     <row r="42" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70" t="s">
         <v>116</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -3933,9 +3958,9 @@
       <c r="P42" s="29"/>
     </row>
     <row r="43" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="20" t="s">
         <v>114</v>
       </c>
@@ -3967,10 +3992,10 @@
       <c r="P43" s="29"/>
     </row>
     <row r="44" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47" t="s">
+      <c r="A44" s="63"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70" t="s">
         <v>120</v>
       </c>
       <c r="E44" s="20" t="s">
@@ -4001,10 +4026,10 @@
       <c r="P44" s="29"/>
     </row>
     <row r="45" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="20" t="s">
         <v>122</v>
       </c>
@@ -4033,9 +4058,9 @@
       <c r="P45" s="29"/>
     </row>
     <row r="46" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="20" t="s">
         <v>123</v>
       </c>
@@ -4065,10 +4090,10 @@
       <c r="P46" s="29"/>
     </row>
     <row r="47" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47" t="s">
+      <c r="A47" s="63"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E47" s="20" t="s">
@@ -4077,19 +4102,19 @@
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="27"/>
-      <c r="I47" s="44">
+      <c r="I47" s="68">
         <v>0.5</v>
       </c>
-      <c r="J47" s="44">
+      <c r="J47" s="68">
         <v>0.5</v>
       </c>
-      <c r="K47" s="44">
+      <c r="K47" s="68">
         <v>1</v>
       </c>
-      <c r="L47" s="44">
+      <c r="L47" s="68">
         <v>1</v>
       </c>
-      <c r="M47" s="44">
+      <c r="M47" s="68">
         <v>1</v>
       </c>
       <c r="N47" s="28">
@@ -4099,10 +4124,10 @@
       <c r="P47" s="29"/>
     </row>
     <row r="48" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="20" t="s">
         <v>126</v>
       </c>
@@ -4111,11 +4136,11 @@
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="27"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
       <c r="N48" s="28">
         <v>0.25</v>
       </c>
@@ -4123,10 +4148,10 @@
       <c r="P48" s="29"/>
     </row>
     <row r="49" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
       <c r="E49" s="20" t="s">
         <v>128</v>
       </c>
@@ -4135,11 +4160,11 @@
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="27"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
       <c r="N49" s="28">
         <v>0.5</v>
       </c>
@@ -4147,10 +4172,10 @@
       <c r="P49" s="29"/>
     </row>
     <row r="50" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="20" t="s">
         <v>130</v>
       </c>
@@ -4161,11 +4186,11 @@
         <v>132</v>
       </c>
       <c r="H50" s="27"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
       <c r="N50" s="28">
         <v>0.25</v>
       </c>
@@ -4173,9 +4198,9 @@
       <c r="P50" s="29"/>
     </row>
     <row r="51" spans="1:16" s="30" customFormat="1" ht="156.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47" t="s">
+      <c r="A51" s="63"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70" t="s">
         <v>133</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -4211,9 +4236,9 @@
       <c r="P51" s="29"/>
     </row>
     <row r="52" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
       <c r="D52" s="20" t="s">
         <v>130</v>
       </c>
@@ -4247,8 +4272,8 @@
       <c r="P52" s="29"/>
     </row>
     <row r="53" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="47"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="20" t="s">
         <v>137</v>
       </c>
@@ -4281,9 +4306,9 @@
       <c r="P53" s="29"/>
     </row>
     <row r="54" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47" t="s">
+      <c r="A54" s="63"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70" t="s">
         <v>139</v>
       </c>
       <c r="D54" s="20" t="s">
@@ -4317,9 +4342,9 @@
       <c r="P54" s="29"/>
     </row>
     <row r="55" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
       <c r="D55" s="20" t="s">
         <v>141</v>
       </c>
@@ -4351,10 +4376,10 @@
       <c r="P55" s="29"/>
     </row>
     <row r="56" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47" t="s">
+      <c r="A56" s="63"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E56" s="20" t="s">
@@ -4385,10 +4410,10 @@
       <c r="P56" s="29"/>
     </row>
     <row r="57" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
       <c r="E57" s="20" t="s">
         <v>126</v>
       </c>
@@ -4419,10 +4444,10 @@
       <c r="P57" s="29"/>
     </row>
     <row r="58" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
       <c r="E58" s="20" t="s">
         <v>128</v>
       </c>
@@ -4453,10 +4478,10 @@
       <c r="P58" s="29"/>
     </row>
     <row r="59" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
       <c r="E59" s="20" t="s">
         <v>130</v>
       </c>
@@ -4489,9 +4514,9 @@
       <c r="P59" s="29"/>
     </row>
     <row r="60" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="20" t="s">
         <v>143</v>
       </c>
@@ -4523,8 +4548,8 @@
       <c r="P60" s="29"/>
     </row>
     <row r="61" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="70"/>
       <c r="C61" s="20" t="s">
         <v>145</v>
       </c>
@@ -4557,7 +4582,7 @@
       <c r="P61" s="29"/>
     </row>
     <row r="62" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20" t="s">
         <v>147</v>
@@ -4591,11 +4616,11 @@
       <c r="P62" s="29"/>
     </row>
     <row r="63" spans="1:16" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="47" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="70" t="s">
         <v>150</v>
       </c>
       <c r="D63" s="20" t="s">
@@ -4605,31 +4630,31 @@
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="27"/>
-      <c r="I63" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="J63" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="K63" s="44">
+      <c r="I63" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="J63" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="K63" s="68">
         <v>0.625</v>
       </c>
-      <c r="L63" s="44">
+      <c r="L63" s="68">
         <v>0.625</v>
       </c>
-      <c r="M63" s="44">
+      <c r="M63" s="68">
         <v>0.625</v>
       </c>
-      <c r="N63" s="44">
+      <c r="N63" s="68">
         <v>0.75</v>
       </c>
       <c r="O63" s="27"/>
       <c r="P63" s="29"/>
     </row>
     <row r="64" spans="1:16" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="20" t="s">
         <v>152</v>
       </c>
@@ -4637,19 +4662,19 @@
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="27"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
       <c r="O64" s="27"/>
       <c r="P64" s="29"/>
     </row>
     <row r="65" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="20" t="s">
         <v>153</v>
       </c>
@@ -4657,19 +4682,19 @@
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="H65" s="27"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
       <c r="O65" s="27"/>
       <c r="P65" s="29"/>
     </row>
     <row r="66" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
       <c r="D66" s="20" t="s">
         <v>115</v>
       </c>
@@ -4681,17 +4706,17 @@
         <v>155</v>
       </c>
       <c r="H66" s="27"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="68"/>
       <c r="O66" s="27"/>
       <c r="P66" s="29"/>
     </row>
     <row r="67" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="20" t="s">
         <v>156</v>
       </c>
@@ -4727,8 +4752,8 @@
       <c r="P67" s="29"/>
     </row>
     <row r="68" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="47" t="s">
+      <c r="A68" s="63"/>
+      <c r="B68" s="70" t="s">
         <v>159</v>
       </c>
       <c r="C68" s="20" t="s">
@@ -4763,8 +4788,8 @@
       <c r="P68" s="38"/>
     </row>
     <row r="69" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="47"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="70"/>
       <c r="C69" s="20" t="s">
         <v>162</v>
       </c>
@@ -4797,8 +4822,8 @@
       <c r="P69" s="38"/>
     </row>
     <row r="70" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="47"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="70"/>
       <c r="C70" s="20" t="s">
         <v>164</v>
       </c>
@@ -4831,8 +4856,8 @@
       <c r="P70" s="38"/>
     </row>
     <row r="71" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="70"/>
       <c r="C71" s="20" t="s">
         <v>165</v>
       </c>
@@ -4865,8 +4890,8 @@
       <c r="P71" s="38"/>
     </row>
     <row r="72" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="70"/>
       <c r="C72" s="20" t="s">
         <v>167</v>
       </c>
@@ -4897,8 +4922,8 @@
       <c r="P72" s="38"/>
     </row>
     <row r="73" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="47"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="70"/>
       <c r="C73" s="20" t="s">
         <v>168</v>
       </c>
@@ -4931,7 +4956,7 @@
       <c r="P73" s="38"/>
     </row>
     <row r="74" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="26" t="s">
         <v>170</v>
       </c>
@@ -4967,11 +4992,11 @@
       <c r="P74" s="38"/>
     </row>
     <row r="75" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="46" t="s">
+      <c r="A75" s="63"/>
+      <c r="B75" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="65" t="s">
         <v>174</v>
       </c>
       <c r="D75" s="26"/>
@@ -5003,9 +5028,9 @@
       <c r="P75" s="38"/>
     </row>
     <row r="76" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26" t="s">
@@ -5035,9 +5060,9 @@
       <c r="P76" s="38"/>
     </row>
     <row r="77" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46" t="s">
+      <c r="A77" s="63"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65" t="s">
         <v>177</v>
       </c>
       <c r="D77" s="26"/>
@@ -5069,9 +5094,9 @@
       <c r="P77" s="38"/>
     </row>
     <row r="78" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
       <c r="F78" s="26" t="s">
@@ -5101,10 +5126,10 @@
       <c r="P78" s="38"/>
     </row>
     <row r="79" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="51" t="s">
+      <c r="A79" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="65" t="s">
         <v>30</v>
       </c>
       <c r="C79" s="25" t="s">
@@ -5117,7 +5142,7 @@
       <c r="F79" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G79" s="44" t="s">
+      <c r="G79" s="68" t="s">
         <v>181</v>
       </c>
       <c r="H79" s="36"/>
@@ -5139,8 +5164,8 @@
       <c r="P79" s="38"/>
     </row>
     <row r="80" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="63"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="25" t="s">
         <v>40</v>
       </c>
@@ -5149,7 +5174,7 @@
       <c r="F80" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="44"/>
+      <c r="G80" s="68"/>
       <c r="H80" s="36"/>
       <c r="I80" s="28">
         <v>0</v>
@@ -5169,8 +5194,8 @@
       <c r="P80" s="38"/>
     </row>
     <row r="81" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
-      <c r="B81" s="46"/>
+      <c r="A81" s="63"/>
+      <c r="B81" s="65"/>
       <c r="C81" s="25" t="s">
         <v>27</v>
       </c>
@@ -5199,8 +5224,8 @@
       <c r="P81" s="38"/>
     </row>
     <row r="82" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="46"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="65"/>
       <c r="C82" s="25" t="s">
         <v>33</v>
       </c>
@@ -5229,8 +5254,8 @@
       <c r="P82" s="38"/>
     </row>
     <row r="83" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="46"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="25" t="s">
         <v>42</v>
       </c>
@@ -5259,8 +5284,8 @@
       <c r="P83" s="38"/>
     </row>
     <row r="84" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="50" t="s">
+      <c r="A84" s="63"/>
+      <c r="B84" s="64" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="25" t="s">
@@ -5291,8 +5316,8 @@
       <c r="P84" s="38"/>
     </row>
     <row r="85" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="46"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="65"/>
       <c r="C85" s="25" t="s">
         <v>47</v>
       </c>
@@ -5321,8 +5346,8 @@
       <c r="P85" s="38"/>
     </row>
     <row r="86" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="47" t="s">
+      <c r="A86" s="63"/>
+      <c r="B86" s="70" t="s">
         <v>185</v>
       </c>
       <c r="C86" s="20" t="s">
@@ -5355,9 +5380,9 @@
       <c r="P86" s="38"/>
     </row>
     <row r="87" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47" t="s">
+      <c r="A87" s="63"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D87" s="20" t="s">
@@ -5366,10 +5391,10 @@
       <c r="E87" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="47" t="s">
+      <c r="F87" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G87" s="47" t="s">
+      <c r="G87" s="70" t="s">
         <v>186</v>
       </c>
       <c r="H87" s="36"/>
@@ -5391,17 +5416,17 @@
       <c r="P87" s="38"/>
     </row>
     <row r="88" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
       <c r="D88" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="70"/>
       <c r="H88" s="36"/>
       <c r="I88" s="28">
         <v>0</v>
@@ -5421,17 +5446,17 @@
       <c r="P88" s="38"/>
     </row>
     <row r="89" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
       <c r="D89" s="20" t="s">
         <v>187</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
       <c r="H89" s="36"/>
       <c r="I89" s="28">
         <v>0</v>
@@ -5451,9 +5476,9 @@
       <c r="P89" s="38"/>
     </row>
     <row r="90" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="70"/>
       <c r="D90" s="26" t="s">
         <v>64</v>
       </c>
@@ -5481,8 +5506,8 @@
       <c r="P90" s="38"/>
     </row>
     <row r="91" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="47" t="s">
+      <c r="A91" s="63"/>
+      <c r="B91" s="70" t="s">
         <v>188</v>
       </c>
       <c r="C91" s="20" t="s">
@@ -5513,9 +5538,9 @@
       <c r="P91" s="38"/>
     </row>
     <row r="92" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47" t="s">
+      <c r="A92" s="63"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="70" t="s">
         <v>189</v>
       </c>
       <c r="D92" s="20"/>
@@ -5545,9 +5570,9 @@
       <c r="P92" s="38"/>
     </row>
     <row r="93" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="70"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20" t="s">
         <v>109</v>
@@ -5575,8 +5600,8 @@
       <c r="P93" s="38"/>
     </row>
     <row r="94" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="47"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="70"/>
       <c r="C94" s="20" t="s">
         <v>192</v>
       </c>
@@ -5605,8 +5630,8 @@
       <c r="P94" s="38"/>
     </row>
     <row r="95" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="47" t="s">
+      <c r="A95" s="63"/>
+      <c r="B95" s="70" t="s">
         <v>195</v>
       </c>
       <c r="C95" s="20" t="s">
@@ -5615,7 +5640,7 @@
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="47" t="s">
+      <c r="G95" s="70" t="s">
         <v>197</v>
       </c>
       <c r="H95" s="36"/>
@@ -5637,9 +5662,9 @@
       <c r="P95" s="38"/>
     </row>
     <row r="96" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="47" t="s">
+      <c r="A96" s="63"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="70" t="s">
         <v>198</v>
       </c>
       <c r="D96" s="20" t="s">
@@ -5651,7 +5676,7 @@
       <c r="F96" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="G96" s="47"/>
+      <c r="G96" s="70"/>
       <c r="H96" s="36"/>
       <c r="I96" s="28">
         <v>0.125</v>
@@ -5671,9 +5696,9 @@
       <c r="P96" s="38"/>
     </row>
     <row r="97" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
+      <c r="A97" s="63"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20" t="s">
         <v>109</v>
@@ -5681,7 +5706,7 @@
       <c r="F97" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="G97" s="47"/>
+      <c r="G97" s="70"/>
       <c r="H97" s="36"/>
       <c r="I97" s="28">
         <v>0.125</v>
@@ -5701,9 +5726,9 @@
       <c r="P97" s="38"/>
     </row>
     <row r="98" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="47"/>
-      <c r="C98" s="47"/>
+      <c r="A98" s="63"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="70"/>
       <c r="D98" s="26" t="s">
         <v>200</v>
       </c>
@@ -5711,7 +5736,7 @@
       <c r="F98" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G98" s="47"/>
+      <c r="G98" s="70"/>
       <c r="H98" s="36"/>
       <c r="I98" s="28">
         <v>0.25</v>
@@ -5731,9 +5756,9 @@
       <c r="P98" s="38"/>
     </row>
     <row r="99" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
       <c r="D99" s="26" t="s">
         <v>202</v>
       </c>
@@ -5741,7 +5766,7 @@
       <c r="F99" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="G99" s="47"/>
+      <c r="G99" s="70"/>
       <c r="H99" s="36"/>
       <c r="I99" s="28">
         <v>0.25</v>
@@ -5761,9 +5786,9 @@
       <c r="P99" s="38"/>
     </row>
     <row r="100" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
       <c r="D100" s="26" t="s">
         <v>204</v>
       </c>
@@ -5771,7 +5796,7 @@
       <c r="F100" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="G100" s="47"/>
+      <c r="G100" s="70"/>
       <c r="H100" s="36"/>
       <c r="I100" s="28">
         <v>0.25</v>
@@ -5791,7 +5816,7 @@
       <c r="P100" s="38"/>
     </row>
     <row r="101" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
+      <c r="A101" s="63"/>
       <c r="B101" s="20" t="s">
         <v>206</v>
       </c>
@@ -5825,7 +5850,7 @@
       <c r="P101" s="38"/>
     </row>
     <row r="102" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A102" s="51"/>
+      <c r="A102" s="63"/>
       <c r="B102" s="20" t="s">
         <v>156</v>
       </c>
@@ -5857,8 +5882,8 @@
       <c r="P102" s="38"/>
     </row>
     <row r="103" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="51"/>
-      <c r="B103" s="46" t="s">
+      <c r="A103" s="63"/>
+      <c r="B103" s="65" t="s">
         <v>209</v>
       </c>
       <c r="C103" s="26" t="s">
@@ -5887,9 +5912,9 @@
       <c r="P103" s="38"/>
     </row>
     <row r="104" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="46" t="s">
+      <c r="A104" s="63"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65" t="s">
         <v>210</v>
       </c>
       <c r="D104" s="26"/>
@@ -5899,27 +5924,27 @@
       <c r="F104" s="26"/>
       <c r="G104" s="26"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="44">
+      <c r="I104" s="68">
         <v>0.25</v>
       </c>
       <c r="J104" s="36"/>
-      <c r="K104" s="44">
+      <c r="K104" s="68">
         <v>0.375</v>
       </c>
-      <c r="L104" s="44">
+      <c r="L104" s="68">
         <v>0.375</v>
       </c>
       <c r="M104" s="36"/>
-      <c r="N104" s="44">
+      <c r="N104" s="68">
         <v>0.375</v>
       </c>
       <c r="O104" s="37"/>
       <c r="P104" s="38"/>
     </row>
     <row r="105" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="51"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="46"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
       <c r="D105" s="26"/>
       <c r="E105" s="26" t="s">
         <v>212</v>
@@ -5927,19 +5952,19 @@
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="44"/>
+      <c r="I105" s="68"/>
       <c r="J105" s="36"/>
-      <c r="K105" s="44"/>
-      <c r="L105" s="44"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="68"/>
       <c r="M105" s="36"/>
-      <c r="N105" s="44"/>
+      <c r="N105" s="68"/>
       <c r="O105" s="37"/>
       <c r="P105" s="38"/>
     </row>
     <row r="106" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="51"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
       <c r="D106" s="26"/>
       <c r="E106" s="26" t="s">
         <v>213</v>
@@ -5947,18 +5972,18 @@
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
       <c r="H106" s="36"/>
-      <c r="I106" s="44"/>
+      <c r="I106" s="68"/>
       <c r="J106" s="36"/>
-      <c r="K106" s="44"/>
-      <c r="L106" s="44"/>
+      <c r="K106" s="68"/>
+      <c r="L106" s="68"/>
       <c r="M106" s="36"/>
-      <c r="N106" s="44"/>
+      <c r="N106" s="68"/>
       <c r="O106" s="37"/>
       <c r="P106" s="38"/>
     </row>
     <row r="107" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
-      <c r="B107" s="46"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="65"/>
       <c r="C107" s="26" t="s">
         <v>214</v>
       </c>
@@ -5985,10 +6010,10 @@
       <c r="P107" s="38"/>
     </row>
     <row r="108" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="49" t="s">
+      <c r="A108" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="B108" s="50" t="s">
+      <c r="B108" s="64" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="25" t="s">
@@ -6013,8 +6038,8 @@
       <c r="P108" s="38"/>
     </row>
     <row r="109" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="49"/>
-      <c r="B109" s="50"/>
+      <c r="A109" s="71"/>
+      <c r="B109" s="64"/>
       <c r="C109" s="25" t="s">
         <v>33</v>
       </c>
@@ -6037,8 +6062,8 @@
       <c r="P109" s="38"/>
     </row>
     <row r="110" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
-      <c r="B110" s="46"/>
+      <c r="A110" s="71"/>
+      <c r="B110" s="65"/>
       <c r="C110" s="25" t="s">
         <v>151</v>
       </c>
@@ -6061,11 +6086,11 @@
       <c r="P110" s="38"/>
     </row>
     <row r="111" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="49"/>
-      <c r="B111" s="46" t="s">
+      <c r="A111" s="71"/>
+      <c r="B111" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="C111" s="46" t="s">
+      <c r="C111" s="65" t="s">
         <v>173</v>
       </c>
       <c r="D111" s="26" t="s">
@@ -6089,9 +6114,9 @@
       <c r="P111" s="38"/>
     </row>
     <row r="112" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
+      <c r="A112" s="71"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="65"/>
       <c r="D112" s="26" t="s">
         <v>222</v>
       </c>
@@ -6113,9 +6138,9 @@
       <c r="P112" s="38"/>
     </row>
     <row r="113" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="46"/>
+      <c r="A113" s="71"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
       <c r="D113" s="26" t="s">
         <v>194</v>
       </c>
@@ -6137,9 +6162,9 @@
       <c r="P113" s="38"/>
     </row>
     <row r="114" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="46"/>
+      <c r="A114" s="71"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
       <c r="D114" s="26" t="s">
         <v>225</v>
       </c>
@@ -6159,9 +6184,9 @@
       <c r="P114" s="38"/>
     </row>
     <row r="115" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="49"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46"/>
+      <c r="A115" s="71"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
       <c r="D115" s="26" t="s">
         <v>226</v>
       </c>
@@ -6181,9 +6206,9 @@
       <c r="P115" s="38"/>
     </row>
     <row r="116" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="49"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="46"/>
+      <c r="A116" s="71"/>
+      <c r="B116" s="65"/>
+      <c r="C116" s="65"/>
       <c r="D116" s="26" t="s">
         <v>227</v>
       </c>
@@ -6203,9 +6228,9 @@
       <c r="P116" s="38"/>
     </row>
     <row r="117" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="49"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="46" t="s">
+      <c r="A117" s="71"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="65" t="s">
         <v>228</v>
       </c>
       <c r="D117" s="26" t="s">
@@ -6229,9 +6254,9 @@
       <c r="P117" s="38"/>
     </row>
     <row r="118" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="49"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="46"/>
+      <c r="A118" s="71"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="65"/>
       <c r="D118" s="26" t="s">
         <v>222</v>
       </c>
@@ -6253,9 +6278,9 @@
       <c r="P118" s="38"/>
     </row>
     <row r="119" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="49"/>
-      <c r="B119" s="46"/>
-      <c r="C119" s="46"/>
+      <c r="A119" s="71"/>
+      <c r="B119" s="65"/>
+      <c r="C119" s="65"/>
       <c r="D119" s="26" t="s">
         <v>194</v>
       </c>
@@ -6277,9 +6302,9 @@
       <c r="P119" s="38"/>
     </row>
     <row r="120" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="49"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="46"/>
+      <c r="A120" s="71"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="65"/>
       <c r="D120" s="26" t="s">
         <v>227</v>
       </c>
@@ -6299,9 +6324,9 @@
       <c r="P120" s="38"/>
     </row>
     <row r="121" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="49"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="46" t="s">
+      <c r="A121" s="71"/>
+      <c r="B121" s="65"/>
+      <c r="C121" s="65" t="s">
         <v>232</v>
       </c>
       <c r="D121" s="26" t="s">
@@ -6325,9 +6350,9 @@
       <c r="P121" s="38"/>
     </row>
     <row r="122" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="46"/>
+      <c r="A122" s="71"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="65"/>
       <c r="D122" s="26" t="s">
         <v>194</v>
       </c>
@@ -6349,9 +6374,9 @@
       <c r="P122" s="38"/>
     </row>
     <row r="123" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="49"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="46"/>
+      <c r="A123" s="71"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="65"/>
       <c r="D123" s="26" t="s">
         <v>227</v>
       </c>
@@ -6371,9 +6396,9 @@
       <c r="P123" s="38"/>
     </row>
     <row r="124" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="49"/>
-      <c r="B124" s="46"/>
-      <c r="C124" s="46" t="s">
+      <c r="A124" s="71"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="65" t="s">
         <v>235</v>
       </c>
       <c r="D124" s="26" t="s">
@@ -6397,9 +6422,9 @@
       <c r="P124" s="38"/>
     </row>
     <row r="125" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="49"/>
-      <c r="B125" s="46"/>
-      <c r="C125" s="46"/>
+      <c r="A125" s="71"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="65"/>
       <c r="D125" s="26" t="s">
         <v>194</v>
       </c>
@@ -6421,9 +6446,9 @@
       <c r="P125" s="38"/>
     </row>
     <row r="126" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="49"/>
-      <c r="B126" s="46"/>
-      <c r="C126" s="46"/>
+      <c r="A126" s="71"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="65"/>
       <c r="D126" s="26" t="s">
         <v>121</v>
       </c>
@@ -6443,9 +6468,9 @@
       <c r="P126" s="38"/>
     </row>
     <row r="127" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="49"/>
-      <c r="B127" s="46"/>
-      <c r="C127" s="46"/>
+      <c r="A127" s="71"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="65"/>
       <c r="D127" s="26" t="s">
         <v>115</v>
       </c>
@@ -6465,9 +6490,9 @@
       <c r="P127" s="38"/>
     </row>
     <row r="128" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="49"/>
-      <c r="B128" s="46"/>
-      <c r="C128" s="46"/>
+      <c r="A128" s="71"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="65"/>
       <c r="D128" s="26" t="s">
         <v>227</v>
       </c>
@@ -6487,8 +6512,8 @@
       <c r="P128" s="38"/>
     </row>
     <row r="129" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A129" s="49"/>
-      <c r="B129" s="47" t="s">
+      <c r="A129" s="71"/>
+      <c r="B129" s="70" t="s">
         <v>238</v>
       </c>
       <c r="C129" s="20" t="s">
@@ -6513,8 +6538,8 @@
       <c r="P129" s="38"/>
     </row>
     <row r="130" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A130" s="49"/>
-      <c r="B130" s="47"/>
+      <c r="A130" s="71"/>
+      <c r="B130" s="70"/>
       <c r="C130" s="20" t="s">
         <v>240</v>
       </c>
@@ -6537,8 +6562,8 @@
       <c r="P130" s="38"/>
     </row>
     <row r="131" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A131" s="49"/>
-      <c r="B131" s="47"/>
+      <c r="A131" s="71"/>
+      <c r="B131" s="70"/>
       <c r="C131" s="20" t="s">
         <v>242</v>
       </c>
@@ -6561,14 +6586,14 @@
       <c r="P131" s="38"/>
     </row>
     <row r="132" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="49"/>
-      <c r="B132" s="47" t="s">
+      <c r="A132" s="71"/>
+      <c r="B132" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C132" s="47" t="s">
+      <c r="C132" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="D132" s="47" t="s">
+      <c r="D132" s="70" t="s">
         <v>245</v>
       </c>
       <c r="E132" s="20" t="s">
@@ -6589,10 +6614,10 @@
       <c r="P132" s="38"/>
     </row>
     <row r="133" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A133" s="49"/>
-      <c r="B133" s="47"/>
-      <c r="C133" s="47"/>
-      <c r="D133" s="47"/>
+      <c r="A133" s="71"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="70"/>
       <c r="E133" s="20" t="s">
         <v>227</v>
       </c>
@@ -6611,8 +6636,8 @@
       <c r="P133" s="38"/>
     </row>
     <row r="134" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="49"/>
-      <c r="B134" s="47"/>
+      <c r="A134" s="71"/>
+      <c r="B134" s="70"/>
       <c r="C134" s="20" t="s">
         <v>50</v>
       </c>
@@ -6637,8 +6662,8 @@
       <c r="P134" s="38"/>
     </row>
     <row r="135" spans="1:16" s="39" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A135" s="49"/>
-      <c r="B135" s="47"/>
+      <c r="A135" s="71"/>
+      <c r="B135" s="70"/>
       <c r="C135" s="20" t="s">
         <v>53</v>
       </c>
@@ -6663,9 +6688,9 @@
       <c r="P135" s="38"/>
     </row>
     <row r="136" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A136" s="49"/>
-      <c r="B136" s="47"/>
-      <c r="C136" s="47" t="s">
+      <c r="A136" s="71"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D136" s="20" t="s">
@@ -6674,10 +6699,10 @@
       <c r="E136" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F136" s="47" t="s">
+      <c r="F136" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G136" s="47" t="s">
+      <c r="G136" s="70" t="s">
         <v>60</v>
       </c>
       <c r="H136" s="36"/>
@@ -6693,17 +6718,17 @@
       <c r="P136" s="38"/>
     </row>
     <row r="137" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A137" s="49"/>
-      <c r="B137" s="47"/>
-      <c r="C137" s="47"/>
+      <c r="A137" s="71"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="70"/>
       <c r="D137" s="20" t="s">
         <v>61</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
+      <c r="F137" s="70"/>
+      <c r="G137" s="70"/>
       <c r="H137" s="28"/>
       <c r="I137" s="36"/>
       <c r="J137" s="36"/>
@@ -6717,17 +6742,17 @@
       <c r="P137" s="38"/>
     </row>
     <row r="138" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="49"/>
-      <c r="B138" s="47"/>
-      <c r="C138" s="47"/>
-      <c r="D138" s="47" t="s">
+      <c r="A138" s="71"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="70" t="s">
         <v>62</v>
       </c>
       <c r="E138" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F138" s="47"/>
-      <c r="G138" s="47"/>
+      <c r="F138" s="70"/>
+      <c r="G138" s="70"/>
       <c r="H138" s="36"/>
       <c r="I138" s="36"/>
       <c r="J138" s="36"/>
@@ -6741,15 +6766,15 @@
       <c r="P138" s="38"/>
     </row>
     <row r="139" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A139" s="49"/>
-      <c r="B139" s="47"/>
-      <c r="C139" s="47"/>
-      <c r="D139" s="47"/>
+      <c r="A139" s="71"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="70"/>
       <c r="E139" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F139" s="47"/>
-      <c r="G139" s="47"/>
+      <c r="F139" s="70"/>
+      <c r="G139" s="70"/>
       <c r="H139" s="36"/>
       <c r="I139" s="36"/>
       <c r="J139" s="36"/>
@@ -6763,9 +6788,9 @@
       <c r="P139" s="38"/>
     </row>
     <row r="140" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="49"/>
-      <c r="B140" s="47"/>
-      <c r="C140" s="47"/>
+      <c r="A140" s="71"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="70"/>
       <c r="D140" s="26" t="s">
         <v>64</v>
       </c>
@@ -6787,12 +6812,12 @@
       <c r="P140" s="38"/>
     </row>
     <row r="141" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="49"/>
-      <c r="B141" s="47"/>
-      <c r="C141" s="47" t="s">
+      <c r="A141" s="71"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="D141" s="46" t="s">
+      <c r="D141" s="65" t="s">
         <v>248</v>
       </c>
       <c r="E141" s="26" t="s">
@@ -6813,10 +6838,10 @@
       <c r="P141" s="38"/>
     </row>
     <row r="142" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A142" s="49"/>
-      <c r="B142" s="47"/>
-      <c r="C142" s="47"/>
-      <c r="D142" s="46"/>
+      <c r="A142" s="71"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="65"/>
       <c r="E142" s="20" t="s">
         <v>227</v>
       </c>
@@ -6835,10 +6860,10 @@
       <c r="P142" s="38"/>
     </row>
     <row r="143" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="49"/>
-      <c r="B143" s="47"/>
-      <c r="C143" s="47"/>
-      <c r="D143" s="46"/>
+      <c r="A143" s="71"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="65"/>
       <c r="E143" s="26" t="s">
         <v>124</v>
       </c>
@@ -6857,8 +6882,8 @@
       <c r="P143" s="38"/>
     </row>
     <row r="144" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="49"/>
-      <c r="B144" s="47" t="s">
+      <c r="A144" s="71"/>
+      <c r="B144" s="70" t="s">
         <v>250</v>
       </c>
       <c r="C144" s="20" t="s">
@@ -6883,8 +6908,8 @@
       <c r="P144" s="38"/>
     </row>
     <row r="145" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="49"/>
-      <c r="B145" s="47"/>
+      <c r="A145" s="71"/>
+      <c r="B145" s="70"/>
       <c r="C145" s="20" t="s">
         <v>253</v>
       </c>
@@ -6907,8 +6932,8 @@
       <c r="P145" s="38"/>
     </row>
     <row r="146" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="49"/>
-      <c r="B146" s="47"/>
+      <c r="A146" s="71"/>
+      <c r="B146" s="70"/>
       <c r="C146" s="20" t="s">
         <v>255</v>
       </c>
@@ -6931,7 +6956,7 @@
       <c r="P146" s="38"/>
     </row>
     <row r="147" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A147" s="49"/>
+      <c r="A147" s="71"/>
       <c r="B147" s="20" t="s">
         <v>257</v>
       </c>
@@ -6959,7 +6984,7 @@
       <c r="P147" s="38"/>
     </row>
     <row r="148" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A148" s="49"/>
+      <c r="A148" s="71"/>
       <c r="B148" s="20" t="s">
         <v>261</v>
       </c>
@@ -6985,7 +7010,7 @@
       <c r="P148" s="38"/>
     </row>
     <row r="149" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A149" s="49"/>
+      <c r="A149" s="71"/>
       <c r="B149" s="20" t="s">
         <v>156</v>
       </c>
@@ -7011,7 +7036,7 @@
       <c r="P149" s="38"/>
     </row>
     <row r="150" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="49"/>
+      <c r="A150" s="71"/>
       <c r="B150" s="26" t="s">
         <v>214</v>
       </c>
@@ -7035,8 +7060,8 @@
       <c r="P150" s="38"/>
     </row>
     <row r="151" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="49"/>
-      <c r="B151" s="48" t="s">
+      <c r="A151" s="71"/>
+      <c r="B151" s="72" t="s">
         <v>170</v>
       </c>
       <c r="C151" s="26" t="s">
@@ -7061,8 +7086,8 @@
       <c r="P151" s="38"/>
     </row>
     <row r="152" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="49"/>
-      <c r="B152" s="48"/>
+      <c r="A152" s="71"/>
+      <c r="B152" s="72"/>
       <c r="C152" s="26" t="s">
         <v>266</v>
       </c>
@@ -7085,9 +7110,9 @@
       <c r="P152" s="38"/>
     </row>
     <row r="153" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="49"/>
-      <c r="B153" s="48"/>
-      <c r="C153" s="48" t="s">
+      <c r="A153" s="71"/>
+      <c r="B153" s="72"/>
+      <c r="C153" s="72" t="s">
         <v>255</v>
       </c>
       <c r="D153" s="26" t="s">
@@ -7109,9 +7134,9 @@
       <c r="P153" s="38"/>
     </row>
     <row r="154" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="49"/>
-      <c r="B154" s="48"/>
-      <c r="C154" s="48"/>
+      <c r="A154" s="71"/>
+      <c r="B154" s="72"/>
+      <c r="C154" s="72"/>
       <c r="D154" s="26" t="s">
         <v>268</v>
       </c>
@@ -7131,9 +7156,9 @@
       <c r="P154" s="38"/>
     </row>
     <row r="155" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="49"/>
-      <c r="B155" s="48"/>
-      <c r="C155" s="48"/>
+      <c r="A155" s="71"/>
+      <c r="B155" s="72"/>
+      <c r="C155" s="72"/>
       <c r="D155" s="26" t="s">
         <v>269</v>
       </c>
@@ -7155,9 +7180,9 @@
       <c r="P155" s="38"/>
     </row>
     <row r="156" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="49"/>
-      <c r="B156" s="48"/>
-      <c r="C156" s="48"/>
+      <c r="A156" s="71"/>
+      <c r="B156" s="72"/>
+      <c r="C156" s="72"/>
       <c r="D156" s="26" t="s">
         <v>168</v>
       </c>
@@ -7177,9 +7202,9 @@
       <c r="P156" s="28"/>
     </row>
     <row r="157" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="49"/>
-      <c r="B157" s="48"/>
-      <c r="C157" s="48"/>
+      <c r="A157" s="71"/>
+      <c r="B157" s="72"/>
+      <c r="C157" s="72"/>
       <c r="D157" s="26" t="s">
         <v>227</v>
       </c>
@@ -7199,9 +7224,9 @@
       <c r="P157" s="28"/>
     </row>
     <row r="158" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="49"/>
-      <c r="B158" s="48"/>
-      <c r="C158" s="48"/>
+      <c r="A158" s="71"/>
+      <c r="B158" s="72"/>
+      <c r="C158" s="72"/>
       <c r="D158" s="26" t="s">
         <v>271</v>
       </c>
@@ -7221,9 +7246,9 @@
       <c r="P158" s="28"/>
     </row>
     <row r="159" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="49"/>
-      <c r="B159" s="48"/>
-      <c r="C159" s="48"/>
+      <c r="A159" s="71"/>
+      <c r="B159" s="72"/>
+      <c r="C159" s="72"/>
       <c r="D159" s="40" t="s">
         <v>272</v>
       </c>
@@ -7608,6 +7633,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="K104:K106"/>
+    <mergeCell ref="L104:L106"/>
+    <mergeCell ref="N104:N106"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="M63:M66"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="M47:M50"/>
+    <mergeCell ref="N63:N66"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B151:B159"/>
+    <mergeCell ref="C153:C159"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="F136:F139"/>
+    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A108:A159"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B111:B128"/>
+    <mergeCell ref="C111:C116"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B132:B143"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="A79:A107"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="G95:G100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="H170:P170"/>
     <mergeCell ref="H2:P2"/>
@@ -7624,79 +7722,6 @@
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="G15:G18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="A79:A107"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="G95:G100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="A108:A159"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B111:B128"/>
-    <mergeCell ref="C111:C116"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="B132:B143"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B151:B159"/>
-    <mergeCell ref="C153:C159"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="F136:F139"/>
-    <mergeCell ref="G136:G139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="M47:M50"/>
-    <mergeCell ref="N63:N66"/>
-    <mergeCell ref="K104:K106"/>
-    <mergeCell ref="L104:L106"/>
-    <mergeCell ref="N104:N106"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="M63:M66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -7714,8 +7739,8 @@
   </sheetPr>
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView showGridLines="0" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -7831,10 +7856,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="64" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -7859,8 +7884,8 @@
       <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="25" t="s">
         <v>33</v>
       </c>
@@ -7883,8 +7908,8 @@
       <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="25" t="s">
         <v>151</v>
       </c>
@@ -7907,11 +7932,11 @@
       <c r="P6" s="38"/>
     </row>
     <row r="7" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="65" t="s">
         <v>173</v>
       </c>
       <c r="D7" s="31" t="s">
@@ -7935,9 +7960,9 @@
       <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="31" t="s">
         <v>222</v>
       </c>
@@ -7959,9 +7984,9 @@
       <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="31" t="s">
         <v>194</v>
       </c>
@@ -7983,9 +8008,9 @@
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="31" t="s">
         <v>225</v>
       </c>
@@ -8005,9 +8030,9 @@
       <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="31" t="s">
         <v>226</v>
       </c>
@@ -8027,9 +8052,9 @@
       <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="31" t="s">
         <v>227</v>
       </c>
@@ -8049,9 +8074,9 @@
       <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65" t="s">
         <v>228</v>
       </c>
       <c r="D13" s="31" t="s">
@@ -8075,9 +8100,9 @@
       <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="31" t="s">
         <v>222</v>
       </c>
@@ -8099,9 +8124,9 @@
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="31" t="s">
         <v>194</v>
       </c>
@@ -8123,9 +8148,9 @@
       <c r="P15" s="38"/>
     </row>
     <row r="16" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="31" t="s">
         <v>227</v>
       </c>
@@ -8145,9 +8170,9 @@
       <c r="P16" s="38"/>
     </row>
     <row r="17" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65" t="s">
         <v>232</v>
       </c>
       <c r="D17" s="31" t="s">
@@ -8171,9 +8196,9 @@
       <c r="P17" s="38"/>
     </row>
     <row r="18" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="31" t="s">
         <v>194</v>
       </c>
@@ -8195,9 +8220,9 @@
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="31" t="s">
         <v>227</v>
       </c>
@@ -8217,9 +8242,9 @@
       <c r="P19" s="38"/>
     </row>
     <row r="20" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65" t="s">
         <v>235</v>
       </c>
       <c r="D20" s="31" t="s">
@@ -8243,9 +8268,9 @@
       <c r="P20" s="38"/>
     </row>
     <row r="21" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="31" t="s">
         <v>194</v>
       </c>
@@ -8267,9 +8292,9 @@
       <c r="P21" s="38"/>
     </row>
     <row r="22" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="31" t="s">
         <v>121</v>
       </c>
@@ -8289,9 +8314,9 @@
       <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="31" t="s">
         <v>115</v>
       </c>
@@ -8311,9 +8336,9 @@
       <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="31" t="s">
         <v>227</v>
       </c>
@@ -8333,8 +8358,8 @@
       <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="70" t="s">
         <v>238</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -8359,8 +8384,8 @@
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="21" t="s">
         <v>240</v>
       </c>
@@ -8383,8 +8408,8 @@
       <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="21" t="s">
         <v>242</v>
       </c>
@@ -8407,14 +8432,14 @@
       <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="71"/>
+      <c r="B28" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="70" t="s">
         <v>245</v>
       </c>
       <c r="E28" s="21" t="s">
@@ -8435,10 +8460,10 @@
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="21" t="s">
         <v>227</v>
       </c>
@@ -8457,8 +8482,8 @@
       <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="21" t="s">
         <v>50</v>
       </c>
@@ -8483,8 +8508,8 @@
       <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" s="39" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="21" t="s">
         <v>53</v>
       </c>
@@ -8509,9 +8534,9 @@
       <c r="P31" s="38"/>
     </row>
     <row r="32" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47" t="s">
+      <c r="A32" s="71"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="21" t="s">
@@ -8520,10 +8545,10 @@
       <c r="E32" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F32" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="47" t="s">
+      <c r="G32" s="70" t="s">
         <v>60</v>
       </c>
       <c r="H32" s="36"/>
@@ -8539,17 +8564,17 @@
       <c r="P32" s="38"/>
     </row>
     <row r="33" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="32"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
@@ -8563,17 +8588,17 @@
       <c r="P33" s="38"/>
     </row>
     <row r="34" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47" t="s">
+      <c r="A34" s="71"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70" t="s">
         <v>62</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
@@ -8587,15 +8612,15 @@
       <c r="P34" s="38"/>
     </row>
     <row r="35" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
@@ -8609,9 +8634,9 @@
       <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="31" t="s">
         <v>64</v>
       </c>
@@ -8633,12 +8658,12 @@
       <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47" t="s">
+      <c r="A37" s="71"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="65" t="s">
         <v>248</v>
       </c>
       <c r="E37" s="31" t="s">
@@ -8659,10 +8684,10 @@
       <c r="P37" s="38"/>
     </row>
     <row r="38" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="46"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="21" t="s">
         <v>227</v>
       </c>
@@ -8681,10 +8706,10 @@
       <c r="P38" s="38"/>
     </row>
     <row r="39" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="46"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="31" t="s">
         <v>124</v>
       </c>
@@ -8703,8 +8728,8 @@
       <c r="P39" s="38"/>
     </row>
     <row r="40" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="47" t="s">
+      <c r="A40" s="71"/>
+      <c r="B40" s="70" t="s">
         <v>250</v>
       </c>
       <c r="C40" s="21" t="s">
@@ -8729,8 +8754,8 @@
       <c r="P40" s="38"/>
     </row>
     <row r="41" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="71"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="21" t="s">
         <v>253</v>
       </c>
@@ -8753,8 +8778,8 @@
       <c r="P41" s="38"/>
     </row>
     <row r="42" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="21" t="s">
         <v>255</v>
       </c>
@@ -8777,7 +8802,7 @@
       <c r="P42" s="38"/>
     </row>
     <row r="43" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="21" t="s">
         <v>257</v>
       </c>
@@ -8805,7 +8830,7 @@
       <c r="P43" s="38"/>
     </row>
     <row r="44" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="21" t="s">
         <v>261</v>
       </c>
@@ -8831,7 +8856,7 @@
       <c r="P44" s="38"/>
     </row>
     <row r="45" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="21" t="s">
         <v>156</v>
       </c>
@@ -8857,7 +8882,7 @@
       <c r="P45" s="38"/>
     </row>
     <row r="46" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="31" t="s">
         <v>214</v>
       </c>
@@ -8881,8 +8906,8 @@
       <c r="P46" s="38"/>
     </row>
     <row r="47" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="48" t="s">
+      <c r="A47" s="71"/>
+      <c r="B47" s="72" t="s">
         <v>170</v>
       </c>
       <c r="C47" s="31" t="s">
@@ -8907,8 +8932,8 @@
       <c r="P47" s="38"/>
     </row>
     <row r="48" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="48"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="31" t="s">
         <v>266</v>
       </c>
@@ -8931,9 +8956,9 @@
       <c r="P48" s="38"/>
     </row>
     <row r="49" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72" t="s">
         <v>255</v>
       </c>
       <c r="D49" s="31" t="s">
@@ -8955,9 +8980,9 @@
       <c r="P49" s="38"/>
     </row>
     <row r="50" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="31" t="s">
         <v>268</v>
       </c>
@@ -8977,9 +9002,9 @@
       <c r="P50" s="38"/>
     </row>
     <row r="51" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="31" t="s">
         <v>269</v>
       </c>
@@ -9001,9 +9026,9 @@
       <c r="P51" s="38"/>
     </row>
     <row r="52" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
       <c r="D52" s="31" t="s">
         <v>168</v>
       </c>
@@ -9023,9 +9048,9 @@
       <c r="P52" s="32"/>
     </row>
     <row r="53" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="31" t="s">
         <v>227</v>
       </c>
@@ -9045,9 +9070,9 @@
       <c r="P53" s="32"/>
     </row>
     <row r="54" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
       <c r="D54" s="31" t="s">
         <v>271</v>
       </c>
@@ -9067,9 +9092,9 @@
       <c r="P54" s="32"/>
     </row>
     <row r="55" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
       <c r="D55" s="40" t="s">
         <v>272</v>
       </c>
@@ -9307,27 +9332,27 @@
         <v>0</v>
       </c>
       <c r="I64" s="4">
-        <f>SUM(I1:I63)</f>
+        <f t="shared" ref="I64:N64" si="0">SUM(I1:I63)</f>
         <v>0</v>
       </c>
       <c r="J64" s="4">
-        <f>SUM(J1:J63)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K64" s="4">
-        <f>SUM(K1:K63)</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="L64" s="4">
-        <f>SUM(L1:L63)</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="M64" s="4">
-        <f>SUM(M1:M63)</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="N64" s="4">
-        <f>SUM(N1:N63)</f>
+        <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
       <c r="O64" s="4">
@@ -9358,23 +9383,23 @@
         <v>0</v>
       </c>
       <c r="J65" s="4">
-        <f t="shared" ref="J65:N65" si="0">J64*660</f>
+        <f t="shared" ref="J65:N65" si="1">J64*660</f>
         <v>0</v>
       </c>
       <c r="K65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7590</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7590</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6270</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16170</v>
       </c>
       <c r="O65" s="4">
@@ -9454,11 +9479,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="H66:P66"/>
+    <mergeCell ref="H67:P67"/>
     <mergeCell ref="A68:P68"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="C32:C36"/>
@@ -9475,11 +9500,11 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="H66:P66"/>
-    <mergeCell ref="H67:P67"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:P2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -9495,9 +9520,464 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N10:N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="19" customWidth="1"/>
+    <col min="11" max="13" width="11.77734375" style="19" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="19" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="17" customWidth="1"/>
+    <col min="17" max="259" width="16.33203125" style="15" customWidth="1"/>
+    <col min="260" max="16384" width="16.33203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+    </row>
+    <row r="2" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="56"/>
+    </row>
+    <row r="3" spans="1:16" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="39" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="37"/>
+      <c r="P4" s="50"/>
+    </row>
+    <row r="5" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="49"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="49"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="49"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="49"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="49"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="49"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="4">
+        <f>SUM(H4:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f>SUM(I1:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f>SUM(J1:J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
+        <f>SUM(N1:N12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="4">
+        <f>H13*660</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>I13*660</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" ref="J14:N14" si="0">J13*660</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="54">
+        <f>H14+I14+M14+N14+O14+P14+J14+K14+L14</f>
+        <v>990</v>
+      </c>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+    </row>
+    <row r="16" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="61">
+        <f>H15*1.06</f>
+        <v>1049.4000000000001</v>
+      </c>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+    </row>
+    <row r="17" spans="1:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H15:P15"/>
+    <mergeCell ref="H16:P16"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F109" workbookViewId="0">
       <selection activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
@@ -9614,10 +10094,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="64" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -9628,7 +10108,7 @@
       <c r="F4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="67" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="27"/>
@@ -9654,9 +10134,9 @@
       <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="64" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -9666,7 +10146,7 @@
       <c r="F5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="27"/>
       <c r="I5" s="32">
         <v>0.25</v>
@@ -9690,10 +10170,10 @@
       <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="50" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="64" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="25" t="s">
@@ -9702,7 +10182,7 @@
       <c r="F6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="27"/>
       <c r="I6" s="32">
         <v>0</v>
@@ -9726,17 +10206,17 @@
       <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="65"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="27"/>
       <c r="I7" s="32">
         <v>0</v>
@@ -9760,17 +10240,17 @@
       <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="27"/>
       <c r="I8" s="32">
         <v>0</v>
@@ -9794,8 +10274,8 @@
       <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="25" t="s">
         <v>40</v>
       </c>
@@ -9804,7 +10284,7 @@
       <c r="F9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="27"/>
       <c r="I9" s="32">
         <v>0.125</v>
@@ -9828,8 +10308,8 @@
       <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="33" t="s">
         <v>42</v>
       </c>
@@ -9838,7 +10318,7 @@
       <c r="F10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27">
         <v>0.25</v>
@@ -9862,8 +10342,8 @@
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -9898,8 +10378,8 @@
       <c r="P11" s="29"/>
     </row>
     <row r="12" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="25" t="s">
         <v>47</v>
       </c>
@@ -9932,8 +10412,8 @@
       <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="70" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -9970,8 +10450,8 @@
       <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="21" t="s">
         <v>53</v>
       </c>
@@ -10006,9 +10486,9 @@
       <c r="P14" s="29"/>
     </row>
     <row r="15" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -10017,10 +10497,10 @@
       <c r="E15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="70" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="27"/>
@@ -10046,17 +10526,17 @@
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="27"/>
       <c r="I16" s="32">
         <v>0.25</v>
@@ -10080,17 +10560,17 @@
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="27"/>
       <c r="I17" s="32">
         <v>0.25</v>
@@ -10114,15 +10594,15 @@
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="27"/>
       <c r="I18" s="32">
         <v>0.25</v>
@@ -10146,9 +10626,9 @@
       <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="31" t="s">
         <v>64</v>
       </c>
@@ -10180,8 +10660,8 @@
       <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="70" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -10218,8 +10698,8 @@
       <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="21" t="s">
         <v>70</v>
       </c>
@@ -10254,8 +10734,8 @@
       <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="21" t="s">
         <v>73</v>
       </c>
@@ -10288,8 +10768,8 @@
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="21" t="s">
         <v>74</v>
       </c>
@@ -10322,8 +10802,8 @@
       <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="21" t="s">
         <v>76</v>
       </c>
@@ -10354,8 +10834,8 @@
       <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="21" t="s">
         <v>77</v>
       </c>
@@ -10388,8 +10868,8 @@
       <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="70" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -10424,8 +10904,8 @@
       <c r="P26" s="29"/>
     </row>
     <row r="27" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="21" t="s">
         <v>82</v>
       </c>
@@ -10458,8 +10938,8 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="21" t="s">
         <v>83</v>
       </c>
@@ -10492,8 +10972,8 @@
       <c r="P28" s="29"/>
     </row>
     <row r="29" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="21" t="s">
         <v>84</v>
       </c>
@@ -10524,8 +11004,8 @@
       <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="21" t="s">
         <v>85</v>
       </c>
@@ -10558,8 +11038,8 @@
       <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="21" t="s">
         <v>87</v>
       </c>
@@ -10592,8 +11072,8 @@
       <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="21" t="s">
         <v>89</v>
       </c>
@@ -10626,8 +11106,8 @@
       <c r="P32" s="29"/>
     </row>
     <row r="33" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="21" t="s">
         <v>91</v>
       </c>
@@ -10660,12 +11140,12 @@
       <c r="P33" s="29"/>
     </row>
     <row r="34" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="70" t="s">
         <v>94</v>
       </c>
       <c r="E34" s="21" t="s">
@@ -10674,7 +11154,7 @@
       <c r="F34" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="70" t="s">
         <v>97</v>
       </c>
       <c r="H34" s="27"/>
@@ -10700,17 +11180,17 @@
       <c r="P34" s="29"/>
     </row>
     <row r="35" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="21" t="s">
         <v>98</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="47"/>
+      <c r="G35" s="70"/>
       <c r="H35" s="27"/>
       <c r="I35" s="32">
         <v>0.25</v>
@@ -10734,8 +11214,8 @@
       <c r="P35" s="29"/>
     </row>
     <row r="36" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="63"/>
+      <c r="B36" s="70" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="21" t="s">
@@ -10770,8 +11250,8 @@
       <c r="P36" s="29"/>
     </row>
     <row r="37" spans="1:16" s="30" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="21" t="s">
         <v>103</v>
       </c>
@@ -10804,12 +11284,12 @@
       <c r="P37" s="29"/>
     </row>
     <row r="38" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47" t="s">
+      <c r="A38" s="63"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="70" t="s">
         <v>106</v>
       </c>
       <c r="E38" s="21" t="s">
@@ -10842,10 +11322,10 @@
       <c r="P38" s="29"/>
     </row>
     <row r="39" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="21" t="s">
         <v>109</v>
       </c>
@@ -10876,9 +11356,9 @@
       <c r="P39" s="29"/>
     </row>
     <row r="40" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="21" t="s">
         <v>111</v>
       </c>
@@ -10910,9 +11390,9 @@
       <c r="P40" s="29"/>
     </row>
     <row r="41" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="21" t="s">
         <v>113</v>
       </c>
@@ -10942,9 +11422,9 @@
       <c r="P41" s="29"/>
     </row>
     <row r="42" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70" t="s">
         <v>116</v>
       </c>
       <c r="D42" s="21" t="s">
@@ -10978,9 +11458,9 @@
       <c r="P42" s="29"/>
     </row>
     <row r="43" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="21" t="s">
         <v>114</v>
       </c>
@@ -11012,10 +11492,10 @@
       <c r="P43" s="29"/>
     </row>
     <row r="44" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47" t="s">
+      <c r="A44" s="63"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70" t="s">
         <v>120</v>
       </c>
       <c r="E44" s="21" t="s">
@@ -11046,10 +11526,10 @@
       <c r="P44" s="29"/>
     </row>
     <row r="45" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="21" t="s">
         <v>122</v>
       </c>
@@ -11078,9 +11558,9 @@
       <c r="P45" s="29"/>
     </row>
     <row r="46" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="21" t="s">
         <v>123</v>
       </c>
@@ -11110,10 +11590,10 @@
       <c r="P46" s="29"/>
     </row>
     <row r="47" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47" t="s">
+      <c r="A47" s="63"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E47" s="21" t="s">
@@ -11122,19 +11602,19 @@
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="27"/>
-      <c r="I47" s="44">
+      <c r="I47" s="68">
         <v>0.5</v>
       </c>
-      <c r="J47" s="44">
+      <c r="J47" s="68">
         <v>0.5</v>
       </c>
-      <c r="K47" s="44">
+      <c r="K47" s="68">
         <v>1</v>
       </c>
-      <c r="L47" s="44">
+      <c r="L47" s="68">
         <v>1</v>
       </c>
-      <c r="M47" s="44">
+      <c r="M47" s="68">
         <v>1</v>
       </c>
       <c r="N47" s="32">
@@ -11144,10 +11624,10 @@
       <c r="P47" s="29"/>
     </row>
     <row r="48" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="21" t="s">
         <v>126</v>
       </c>
@@ -11156,11 +11636,11 @@
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="27"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
       <c r="N48" s="32">
         <v>0.25</v>
       </c>
@@ -11168,10 +11648,10 @@
       <c r="P48" s="29"/>
     </row>
     <row r="49" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
       <c r="E49" s="21" t="s">
         <v>128</v>
       </c>
@@ -11180,11 +11660,11 @@
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="27"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
       <c r="N49" s="32">
         <v>0.5</v>
       </c>
@@ -11192,10 +11672,10 @@
       <c r="P49" s="29"/>
     </row>
     <row r="50" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="21" t="s">
         <v>130</v>
       </c>
@@ -11206,11 +11686,11 @@
         <v>132</v>
       </c>
       <c r="H50" s="27"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
       <c r="N50" s="32">
         <v>0.25</v>
       </c>
@@ -11218,9 +11698,9 @@
       <c r="P50" s="29"/>
     </row>
     <row r="51" spans="1:16" s="30" customFormat="1" ht="156.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47" t="s">
+      <c r="A51" s="63"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70" t="s">
         <v>133</v>
       </c>
       <c r="D51" s="21" t="s">
@@ -11256,9 +11736,9 @@
       <c r="P51" s="29"/>
     </row>
     <row r="52" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
       <c r="D52" s="21" t="s">
         <v>130</v>
       </c>
@@ -11292,8 +11772,8 @@
       <c r="P52" s="29"/>
     </row>
     <row r="53" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="47"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="21" t="s">
         <v>137</v>
       </c>
@@ -11326,9 +11806,9 @@
       <c r="P53" s="29"/>
     </row>
     <row r="54" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47" t="s">
+      <c r="A54" s="63"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70" t="s">
         <v>139</v>
       </c>
       <c r="D54" s="21" t="s">
@@ -11362,9 +11842,9 @@
       <c r="P54" s="29"/>
     </row>
     <row r="55" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
       <c r="D55" s="21" t="s">
         <v>141</v>
       </c>
@@ -11396,10 +11876,10 @@
       <c r="P55" s="29"/>
     </row>
     <row r="56" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47" t="s">
+      <c r="A56" s="63"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E56" s="21" t="s">
@@ -11430,10 +11910,10 @@
       <c r="P56" s="29"/>
     </row>
     <row r="57" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
       <c r="E57" s="21" t="s">
         <v>126</v>
       </c>
@@ -11464,10 +11944,10 @@
       <c r="P57" s="29"/>
     </row>
     <row r="58" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
       <c r="E58" s="21" t="s">
         <v>128</v>
       </c>
@@ -11498,10 +11978,10 @@
       <c r="P58" s="29"/>
     </row>
     <row r="59" spans="1:16" s="30" customFormat="1" ht="87" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
       <c r="E59" s="21" t="s">
         <v>130</v>
       </c>
@@ -11534,9 +12014,9 @@
       <c r="P59" s="29"/>
     </row>
     <row r="60" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="21" t="s">
         <v>143</v>
       </c>
@@ -11568,8 +12048,8 @@
       <c r="P60" s="29"/>
     </row>
     <row r="61" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="70"/>
       <c r="C61" s="21" t="s">
         <v>145</v>
       </c>
@@ -11602,7 +12082,7 @@
       <c r="P61" s="29"/>
     </row>
     <row r="62" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21" t="s">
         <v>147</v>
@@ -11636,11 +12116,11 @@
       <c r="P62" s="29"/>
     </row>
     <row r="63" spans="1:16" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="47" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="70" t="s">
         <v>150</v>
       </c>
       <c r="D63" s="21" t="s">
@@ -11650,31 +12130,31 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
       <c r="H63" s="27"/>
-      <c r="I63" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="J63" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="K63" s="44">
+      <c r="I63" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="J63" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="K63" s="68">
         <v>0.625</v>
       </c>
-      <c r="L63" s="44">
+      <c r="L63" s="68">
         <v>0.625</v>
       </c>
-      <c r="M63" s="44">
+      <c r="M63" s="68">
         <v>0.625</v>
       </c>
-      <c r="N63" s="44">
+      <c r="N63" s="68">
         <v>0.75</v>
       </c>
       <c r="O63" s="27"/>
       <c r="P63" s="29"/>
     </row>
     <row r="64" spans="1:16" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="21" t="s">
         <v>152</v>
       </c>
@@ -11682,19 +12162,19 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
       <c r="H64" s="27"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
       <c r="O64" s="27"/>
       <c r="P64" s="29"/>
     </row>
     <row r="65" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="21" t="s">
         <v>153</v>
       </c>
@@ -11702,19 +12182,19 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
       <c r="H65" s="27"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
+      <c r="I65" s="68"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
       <c r="O65" s="27"/>
       <c r="P65" s="29"/>
     </row>
     <row r="66" spans="1:16" s="30" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
       <c r="D66" s="21" t="s">
         <v>115</v>
       </c>
@@ -11726,17 +12206,17 @@
         <v>155</v>
       </c>
       <c r="H66" s="27"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="68"/>
       <c r="O66" s="27"/>
       <c r="P66" s="29"/>
     </row>
     <row r="67" spans="1:16" s="30" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="21" t="s">
         <v>156</v>
       </c>
@@ -11772,8 +12252,8 @@
       <c r="P67" s="29"/>
     </row>
     <row r="68" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="47" t="s">
+      <c r="A68" s="63"/>
+      <c r="B68" s="70" t="s">
         <v>159</v>
       </c>
       <c r="C68" s="21" t="s">
@@ -11808,8 +12288,8 @@
       <c r="P68" s="38"/>
     </row>
     <row r="69" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="47"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="70"/>
       <c r="C69" s="21" t="s">
         <v>162</v>
       </c>
@@ -11842,8 +12322,8 @@
       <c r="P69" s="38"/>
     </row>
     <row r="70" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="47"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="70"/>
       <c r="C70" s="21" t="s">
         <v>164</v>
       </c>
@@ -11876,8 +12356,8 @@
       <c r="P70" s="38"/>
     </row>
     <row r="71" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="70"/>
       <c r="C71" s="21" t="s">
         <v>165</v>
       </c>
@@ -11910,8 +12390,8 @@
       <c r="P71" s="38"/>
     </row>
     <row r="72" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="70"/>
       <c r="C72" s="21" t="s">
         <v>167</v>
       </c>
@@ -11942,8 +12422,8 @@
       <c r="P72" s="38"/>
     </row>
     <row r="73" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="47"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="70"/>
       <c r="C73" s="21" t="s">
         <v>168</v>
       </c>
@@ -11976,7 +12456,7 @@
       <c r="P73" s="38"/>
     </row>
     <row r="74" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="31" t="s">
         <v>170</v>
       </c>
@@ -12012,11 +12492,11 @@
       <c r="P74" s="38"/>
     </row>
     <row r="75" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="46" t="s">
+      <c r="A75" s="63"/>
+      <c r="B75" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="65" t="s">
         <v>174</v>
       </c>
       <c r="D75" s="31"/>
@@ -12048,9 +12528,9 @@
       <c r="P75" s="38"/>
     </row>
     <row r="76" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="31"/>
       <c r="E76" s="31"/>
       <c r="F76" s="31" t="s">
@@ -12080,9 +12560,9 @@
       <c r="P76" s="38"/>
     </row>
     <row r="77" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46" t="s">
+      <c r="A77" s="63"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65" t="s">
         <v>177</v>
       </c>
       <c r="D77" s="31"/>
@@ -12114,9 +12594,9 @@
       <c r="P77" s="38"/>
     </row>
     <row r="78" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
       <c r="F78" s="31" t="s">
@@ -12146,10 +12626,10 @@
       <c r="P78" s="38"/>
     </row>
     <row r="79" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="51" t="s">
+      <c r="A79" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="65" t="s">
         <v>30</v>
       </c>
       <c r="C79" s="25" t="s">
@@ -12162,7 +12642,7 @@
       <c r="F79" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G79" s="44" t="s">
+      <c r="G79" s="68" t="s">
         <v>181</v>
       </c>
       <c r="H79" s="36"/>
@@ -12184,8 +12664,8 @@
       <c r="P79" s="38"/>
     </row>
     <row r="80" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="63"/>
+      <c r="B80" s="65"/>
       <c r="C80" s="25" t="s">
         <v>40</v>
       </c>
@@ -12194,7 +12674,7 @@
       <c r="F80" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="44"/>
+      <c r="G80" s="68"/>
       <c r="H80" s="36"/>
       <c r="I80" s="32">
         <v>0</v>
@@ -12214,8 +12694,8 @@
       <c r="P80" s="38"/>
     </row>
     <row r="81" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
-      <c r="B81" s="46"/>
+      <c r="A81" s="63"/>
+      <c r="B81" s="65"/>
       <c r="C81" s="25" t="s">
         <v>27</v>
       </c>
@@ -12244,8 +12724,8 @@
       <c r="P81" s="38"/>
     </row>
     <row r="82" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="46"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="65"/>
       <c r="C82" s="25" t="s">
         <v>33</v>
       </c>
@@ -12274,8 +12754,8 @@
       <c r="P82" s="38"/>
     </row>
     <row r="83" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="46"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="25" t="s">
         <v>42</v>
       </c>
@@ -12304,8 +12784,8 @@
       <c r="P83" s="38"/>
     </row>
     <row r="84" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="50" t="s">
+      <c r="A84" s="63"/>
+      <c r="B84" s="64" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="25" t="s">
@@ -12336,8 +12816,8 @@
       <c r="P84" s="38"/>
     </row>
     <row r="85" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="46"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="65"/>
       <c r="C85" s="25" t="s">
         <v>47</v>
       </c>
@@ -12366,8 +12846,8 @@
       <c r="P85" s="38"/>
     </row>
     <row r="86" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="47" t="s">
+      <c r="A86" s="63"/>
+      <c r="B86" s="70" t="s">
         <v>185</v>
       </c>
       <c r="C86" s="21" t="s">
@@ -12400,9 +12880,9 @@
       <c r="P86" s="38"/>
     </row>
     <row r="87" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47" t="s">
+      <c r="A87" s="63"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D87" s="21" t="s">
@@ -12411,10 +12891,10 @@
       <c r="E87" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="47" t="s">
+      <c r="F87" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G87" s="47" t="s">
+      <c r="G87" s="70" t="s">
         <v>186</v>
       </c>
       <c r="H87" s="36"/>
@@ -12436,17 +12916,17 @@
       <c r="P87" s="38"/>
     </row>
     <row r="88" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
       <c r="D88" s="21" t="s">
         <v>61</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="70"/>
       <c r="H88" s="36"/>
       <c r="I88" s="32">
         <v>0</v>
@@ -12466,17 +12946,17 @@
       <c r="P88" s="38"/>
     </row>
     <row r="89" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
       <c r="D89" s="21" t="s">
         <v>187</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
       <c r="H89" s="36"/>
       <c r="I89" s="32">
         <v>0</v>
@@ -12496,9 +12976,9 @@
       <c r="P89" s="38"/>
     </row>
     <row r="90" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="70"/>
       <c r="D90" s="31" t="s">
         <v>64</v>
       </c>
@@ -12526,8 +13006,8 @@
       <c r="P90" s="38"/>
     </row>
     <row r="91" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="47" t="s">
+      <c r="A91" s="63"/>
+      <c r="B91" s="70" t="s">
         <v>188</v>
       </c>
       <c r="C91" s="21" t="s">
@@ -12558,9 +13038,9 @@
       <c r="P91" s="38"/>
     </row>
     <row r="92" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47" t="s">
+      <c r="A92" s="63"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="70" t="s">
         <v>189</v>
       </c>
       <c r="D92" s="21"/>
@@ -12590,9 +13070,9 @@
       <c r="P92" s="38"/>
     </row>
     <row r="93" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="70"/>
       <c r="D93" s="21"/>
       <c r="E93" s="21" t="s">
         <v>109</v>
@@ -12620,8 +13100,8 @@
       <c r="P93" s="38"/>
     </row>
     <row r="94" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="47"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="70"/>
       <c r="C94" s="21" t="s">
         <v>192</v>
       </c>
@@ -12650,8 +13130,8 @@
       <c r="P94" s="38"/>
     </row>
     <row r="95" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="47" t="s">
+      <c r="A95" s="63"/>
+      <c r="B95" s="70" t="s">
         <v>195</v>
       </c>
       <c r="C95" s="21" t="s">
@@ -12660,7 +13140,7 @@
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
-      <c r="G95" s="47" t="s">
+      <c r="G95" s="70" t="s">
         <v>197</v>
       </c>
       <c r="H95" s="36"/>
@@ -12682,9 +13162,9 @@
       <c r="P95" s="38"/>
     </row>
     <row r="96" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="47" t="s">
+      <c r="A96" s="63"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="70" t="s">
         <v>198</v>
       </c>
       <c r="D96" s="21" t="s">
@@ -12696,7 +13176,7 @@
       <c r="F96" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G96" s="47"/>
+      <c r="G96" s="70"/>
       <c r="H96" s="36"/>
       <c r="I96" s="32">
         <v>0.125</v>
@@ -12716,9 +13196,9 @@
       <c r="P96" s="38"/>
     </row>
     <row r="97" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
+      <c r="A97" s="63"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
       <c r="D97" s="21"/>
       <c r="E97" s="21" t="s">
         <v>109</v>
@@ -12726,7 +13206,7 @@
       <c r="F97" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="G97" s="47"/>
+      <c r="G97" s="70"/>
       <c r="H97" s="36"/>
       <c r="I97" s="32">
         <v>0.125</v>
@@ -12746,9 +13226,9 @@
       <c r="P97" s="38"/>
     </row>
     <row r="98" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="47"/>
-      <c r="C98" s="47"/>
+      <c r="A98" s="63"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="70"/>
       <c r="D98" s="31" t="s">
         <v>200</v>
       </c>
@@ -12756,7 +13236,7 @@
       <c r="F98" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G98" s="47"/>
+      <c r="G98" s="70"/>
       <c r="H98" s="36"/>
       <c r="I98" s="32">
         <v>0.25</v>
@@ -12776,9 +13256,9 @@
       <c r="P98" s="38"/>
     </row>
     <row r="99" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
       <c r="D99" s="31" t="s">
         <v>202</v>
       </c>
@@ -12786,7 +13266,7 @@
       <c r="F99" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="G99" s="47"/>
+      <c r="G99" s="70"/>
       <c r="H99" s="36"/>
       <c r="I99" s="32">
         <v>0.25</v>
@@ -12806,9 +13286,9 @@
       <c r="P99" s="38"/>
     </row>
     <row r="100" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="70"/>
       <c r="D100" s="31" t="s">
         <v>204</v>
       </c>
@@ -12816,7 +13296,7 @@
       <c r="F100" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="G100" s="47"/>
+      <c r="G100" s="70"/>
       <c r="H100" s="36"/>
       <c r="I100" s="32">
         <v>0.25</v>
@@ -12836,7 +13316,7 @@
       <c r="P100" s="38"/>
     </row>
     <row r="101" spans="1:16" s="39" customFormat="1" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
+      <c r="A101" s="63"/>
       <c r="B101" s="21" t="s">
         <v>206</v>
       </c>
@@ -12870,7 +13350,7 @@
       <c r="P101" s="38"/>
     </row>
     <row r="102" spans="1:16" s="39" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A102" s="51"/>
+      <c r="A102" s="63"/>
       <c r="B102" s="21" t="s">
         <v>156</v>
       </c>
@@ -12902,8 +13382,8 @@
       <c r="P102" s="38"/>
     </row>
     <row r="103" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="51"/>
-      <c r="B103" s="46" t="s">
+      <c r="A103" s="63"/>
+      <c r="B103" s="65" t="s">
         <v>209</v>
       </c>
       <c r="C103" s="31" t="s">
@@ -12932,9 +13412,9 @@
       <c r="P103" s="38"/>
     </row>
     <row r="104" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="46" t="s">
+      <c r="A104" s="63"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65" t="s">
         <v>210</v>
       </c>
       <c r="D104" s="31"/>
@@ -12944,27 +13424,27 @@
       <c r="F104" s="31"/>
       <c r="G104" s="31"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="44">
+      <c r="I104" s="68">
         <v>0.25</v>
       </c>
       <c r="J104" s="36"/>
-      <c r="K104" s="44">
+      <c r="K104" s="68">
         <v>0.375</v>
       </c>
-      <c r="L104" s="44">
+      <c r="L104" s="68">
         <v>0.375</v>
       </c>
       <c r="M104" s="36"/>
-      <c r="N104" s="44">
+      <c r="N104" s="68">
         <v>0.375</v>
       </c>
       <c r="O104" s="37"/>
       <c r="P104" s="38"/>
     </row>
     <row r="105" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="51"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="46"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
       <c r="D105" s="31"/>
       <c r="E105" s="31" t="s">
         <v>212</v>
@@ -12972,19 +13452,19 @@
       <c r="F105" s="31"/>
       <c r="G105" s="31"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="44"/>
+      <c r="I105" s="68"/>
       <c r="J105" s="36"/>
-      <c r="K105" s="44"/>
-      <c r="L105" s="44"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="68"/>
       <c r="M105" s="36"/>
-      <c r="N105" s="44"/>
+      <c r="N105" s="68"/>
       <c r="O105" s="37"/>
       <c r="P105" s="38"/>
     </row>
     <row r="106" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="51"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
       <c r="D106" s="31"/>
       <c r="E106" s="31" t="s">
         <v>213</v>
@@ -12992,18 +13472,18 @@
       <c r="F106" s="31"/>
       <c r="G106" s="31"/>
       <c r="H106" s="36"/>
-      <c r="I106" s="44"/>
+      <c r="I106" s="68"/>
       <c r="J106" s="36"/>
-      <c r="K106" s="44"/>
-      <c r="L106" s="44"/>
+      <c r="K106" s="68"/>
+      <c r="L106" s="68"/>
       <c r="M106" s="36"/>
-      <c r="N106" s="44"/>
+      <c r="N106" s="68"/>
       <c r="O106" s="37"/>
       <c r="P106" s="38"/>
     </row>
     <row r="107" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
-      <c r="B107" s="46"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="65"/>
       <c r="C107" s="31" t="s">
         <v>214</v>
       </c>
@@ -13108,27 +13588,27 @@
         <v>0</v>
       </c>
       <c r="I111" s="4">
-        <f>SUM(I1:I110)</f>
+        <f t="shared" ref="I111:N111" si="0">SUM(I1:I110)</f>
         <v>16.25</v>
       </c>
       <c r="J111" s="4">
-        <f>SUM(J1:J110)</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="K111" s="4">
-        <f>SUM(K1:K110)</f>
+        <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
       <c r="L111" s="4">
-        <f>SUM(L1:L110)</f>
+        <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
       <c r="M111" s="4">
-        <f>SUM(M1:M110)</f>
+        <f t="shared" si="0"/>
         <v>28.875</v>
       </c>
       <c r="N111" s="4">
-        <f>SUM(N1:N110)</f>
+        <f t="shared" si="0"/>
         <v>39.625</v>
       </c>
       <c r="O111" s="4">
@@ -13159,23 +13639,23 @@
         <v>10725</v>
       </c>
       <c r="J112" s="4">
-        <f t="shared" ref="J112:N112" si="0">J111*660</f>
+        <f t="shared" ref="J112:N112" si="1">J111*660</f>
         <v>6930</v>
       </c>
       <c r="K112" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24090</v>
       </c>
       <c r="L112" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24090</v>
       </c>
       <c r="M112" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19057.5</v>
       </c>
       <c r="N112" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26152.5</v>
       </c>
       <c r="O112" s="4">
@@ -13255,6 +13735,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="H113:P113"/>
+    <mergeCell ref="H114:P114"/>
+    <mergeCell ref="A115:P115"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="K104:K106"/>
+    <mergeCell ref="L104:L106"/>
+    <mergeCell ref="N104:N106"/>
+    <mergeCell ref="A79:A107"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="G95:G100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="M63:M66"/>
+    <mergeCell ref="N63:N66"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="K63:K66"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D47:D50"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="H2:P2"/>
@@ -13271,59 +13804,6 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="M47:M50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="K63:K66"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="M63:M66"/>
-    <mergeCell ref="N63:N66"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="H113:P113"/>
-    <mergeCell ref="H114:P114"/>
-    <mergeCell ref="A115:P115"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="K104:K106"/>
-    <mergeCell ref="L104:L106"/>
-    <mergeCell ref="N104:N106"/>
-    <mergeCell ref="A79:A107"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="G95:G100"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
